--- a/data/Haplotype Distribution.xlsx
+++ b/data/Haplotype Distribution.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reuben/Desktop/UK_DRI/Manuscripts/Malaria/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reuben/Desktop/UK_DRI/Manuscripts/Malaria/codes/pfMSP1-Malaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA3D29-252D-A346-9075-6D6B1879ED24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDB6FF4-26C6-AE42-B1F3-763DF712130D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37300" yWindow="0" windowWidth="30400" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="haplotype distribution" sheetId="1" r:id="rId1"/>
+    <sheet name="Key" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="15">
   <si>
     <t>Haplotype</t>
   </si>
@@ -64,12 +65,59 @@
   <si>
     <t>Episodes</t>
   </si>
+  <si>
+    <t>Column Descriptions</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Episode</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>upplementary Table 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Distribution of four frequent haplotypes across infection episodes</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The amino-acid name of the haplotype (E-KSNG-L, Q-KSNG-F, E-KSNG-L, Q-KSNG-L) </t>
+  </si>
+  <si>
+    <t>Total number of haplotype per episode</t>
+  </si>
+  <si>
+    <t>Number of the infections per individual</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +130,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,6 +145,20 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,13 +179,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,17 +340,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="139">
@@ -712,14 +777,14 @@
   </sheetPr>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="278" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" customWidth="1"/>
     <col min="5" max="5" width="4.1640625" customWidth="1"/>
@@ -728,64 +793,64 @@
     <col min="8" max="8" width="8.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
@@ -796,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>3</v>
       </c>
@@ -807,7 +872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>3</v>
       </c>
@@ -818,46 +883,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2"/>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2"/>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2"/>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1</v>
       </c>
@@ -867,10 +932,10 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1</v>
       </c>
@@ -880,62 +945,62 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2"/>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2"/>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="2"/>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>3</v>
       </c>
@@ -947,7 +1012,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>3</v>
       </c>
@@ -959,7 +1024,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>3</v>
       </c>
@@ -971,7 +1036,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>1</v>
       </c>
@@ -982,73 +1047,73 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>5</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>5</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>5</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1059,7 +1124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1070,7 +1135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1081,7 +1146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1092,18 +1157,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1114,7 +1179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1125,18 +1190,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1147,7 +1212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1158,7 +1223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1169,7 +1234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1180,7 +1245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1191,7 +1256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1202,73 +1267,73 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>4</v>
       </c>
       <c r="B44">
         <v>7</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>4</v>
       </c>
       <c r="B45">
         <v>7</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>4</v>
       </c>
       <c r="B46">
         <v>7</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>4</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1279,7 +1344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1290,7 +1355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1301,40 +1366,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>2</v>
       </c>
       <c r="B51">
         <v>7</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>2</v>
       </c>
       <c r="B52">
         <v>7</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53">
         <v>8</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1345,7 +1410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1356,7 +1421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1367,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1378,7 +1443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1389,51 +1454,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>4</v>
       </c>
       <c r="B59">
         <v>9</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>4</v>
       </c>
       <c r="B60">
         <v>9</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>4</v>
       </c>
       <c r="B61">
         <v>9</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>4</v>
       </c>
       <c r="B62">
         <v>9</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -1444,7 +1509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>2</v>
       </c>
@@ -1455,62 +1520,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65">
         <v>9</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>4</v>
       </c>
       <c r="B66">
         <v>10</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>4</v>
       </c>
       <c r="B67">
         <v>10</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>4</v>
       </c>
       <c r="B68">
         <v>10</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>4</v>
       </c>
       <c r="B69">
         <v>10</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1521,7 +1586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>3</v>
       </c>
@@ -1532,7 +1597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>3</v>
       </c>
@@ -1543,62 +1608,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>5</v>
       </c>
       <c r="B73">
         <v>11</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>5</v>
       </c>
       <c r="B74">
         <v>11</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>5</v>
       </c>
       <c r="B75">
         <v>11</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>5</v>
       </c>
       <c r="B76">
         <v>11</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>5</v>
       </c>
       <c r="B77">
         <v>11</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>3</v>
       </c>
@@ -1609,7 +1674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>3</v>
       </c>
@@ -1620,7 +1685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>3</v>
       </c>
@@ -1631,7 +1696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -1642,40 +1707,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>3</v>
       </c>
       <c r="B82">
         <v>12</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>3</v>
       </c>
       <c r="B83">
         <v>12</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>3</v>
       </c>
       <c r="B84">
         <v>12</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>3</v>
       </c>
@@ -1686,7 +1751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>3</v>
       </c>
@@ -1697,7 +1762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>3</v>
       </c>
@@ -1708,62 +1773,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>1</v>
       </c>
       <c r="B88">
         <v>12</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89">
         <v>13</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90">
         <v>13</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91">
         <v>13</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92">
         <v>13</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>3</v>
       </c>
@@ -1774,7 +1839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>3</v>
       </c>
@@ -1785,7 +1850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>3</v>
       </c>
@@ -1796,7 +1861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>2</v>
       </c>
@@ -1807,7 +1872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>2</v>
       </c>
@@ -1818,51 +1883,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>4</v>
       </c>
       <c r="B98">
         <v>14</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>4</v>
       </c>
       <c r="B99">
         <v>14</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>4</v>
       </c>
       <c r="B100">
         <v>14</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>4</v>
       </c>
       <c r="B101">
         <v>14</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>3</v>
       </c>
@@ -1873,7 +1938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>3</v>
       </c>
@@ -1884,7 +1949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>3</v>
       </c>
@@ -1895,7 +1960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>2</v>
       </c>
@@ -1906,7 +1971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>2</v>
       </c>
@@ -1917,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -1928,29 +1993,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>2</v>
       </c>
       <c r="B108">
         <v>16</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>2</v>
       </c>
       <c r="B109">
         <v>16</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -1961,7 +2026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>1</v>
       </c>
@@ -1972,18 +2037,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>1</v>
       </c>
       <c r="B112">
         <v>17</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>1</v>
       </c>
@@ -1994,7 +2059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>1</v>
       </c>
@@ -2005,7 +2070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115">
         <v>2</v>
       </c>
@@ -2016,7 +2081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>2</v>
       </c>
@@ -2027,29 +2092,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117">
         <v>2</v>
       </c>
       <c r="B117">
         <v>19</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118">
         <v>2</v>
       </c>
       <c r="B118">
         <v>19</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119">
         <v>1</v>
       </c>
@@ -2060,18 +2125,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120">
         <v>1</v>
       </c>
       <c r="B120">
         <v>21</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121">
         <v>1</v>
       </c>
@@ -2086,4 +2151,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D4E5A3-DCBB-0844-995E-849AF87AE3E0}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Haplotype Distribution.xlsx
+++ b/data/Haplotype Distribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reuben/Desktop/UK_DRI/Manuscripts/Malaria/codes/pfMSP1-Malaria/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reuben/Desktop/UK_DRI/Manuscripts/Malaria/codes/pfMSP1-Malaria/pfMSP1-Malaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDB6FF4-26C6-AE42-B1F3-763DF712130D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCC1E85-1A0D-D34D-A325-BAC0525FED36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33020" yWindow="2360" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="haplotype distribution" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="15">
   <si>
     <t>Haplotype</t>
   </si>
@@ -117,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,19 +163,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -340,20 +341,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="139">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -775,10 +777,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -793,20 +795,20 @@
     <col min="8" max="8" width="8.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>4</v>
       </c>
@@ -817,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>4</v>
       </c>
@@ -828,7 +830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>4</v>
       </c>
@@ -839,7 +841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -850,7 +852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
@@ -861,7 +863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -872,7 +874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>3</v>
       </c>
@@ -883,299 +885,287 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="9" spans="1:7" s="7" customFormat="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1">
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1">
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1">
+      <c r="A14" s="7">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1">
+      <c r="A15" s="7">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1">
+      <c r="A16" s="7">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1">
+      <c r="A18" s="7">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1">
+      <c r="A19" s="7">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1">
+      <c r="A20" s="7">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1">
+      <c r="A22" s="7">
+        <v>1</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1">
+      <c r="A23" s="7">
+        <v>5</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1">
+      <c r="A24" s="7">
+        <v>5</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1">
+      <c r="A25" s="7">
+        <v>5</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1">
+      <c r="A26" s="7">
+        <v>5</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1">
+      <c r="A27" s="7">
+        <v>5</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1">
+      <c r="A28" s="7">
+        <v>2</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1">
+      <c r="A29" s="7">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1">
+      <c r="A30" s="7">
+        <v>2</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1">
+      <c r="A31" s="7">
+        <v>2</v>
+      </c>
+      <c r="B31" s="7">
+        <v>4</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1">
+      <c r="A32" s="7">
+        <v>1</v>
+      </c>
+      <c r="B32" s="7">
+        <v>5</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="7" customFormat="1">
+      <c r="A33" s="7">
+        <v>1</v>
+      </c>
+      <c r="B33" s="7">
+        <v>5</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1190,795 +1180,795 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:3" s="7" customFormat="1">
+      <c r="A35" s="7">
+        <v>1</v>
+      </c>
+      <c r="B35" s="7">
         <v>6</v>
       </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36">
+      <c r="C35" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="7" customFormat="1">
+      <c r="A36" s="7">
+        <v>2</v>
+      </c>
+      <c r="B36" s="7">
         <v>6</v>
       </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37">
+      <c r="C36" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="7" customFormat="1">
+      <c r="A37" s="7">
+        <v>2</v>
+      </c>
+      <c r="B37" s="7">
         <v>6</v>
       </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>4</v>
-      </c>
-      <c r="B38">
+      <c r="C37" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="7" customFormat="1">
+      <c r="A38" s="7">
+        <v>4</v>
+      </c>
+      <c r="B38" s="7">
         <v>6</v>
       </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39">
+      <c r="C38" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="7" customFormat="1">
+      <c r="A39" s="7">
+        <v>4</v>
+      </c>
+      <c r="B39" s="7">
         <v>6</v>
       </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>4</v>
-      </c>
-      <c r="B40">
+      <c r="C39" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="7" customFormat="1">
+      <c r="A40" s="7">
+        <v>4</v>
+      </c>
+      <c r="B40" s="7">
         <v>6</v>
       </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41">
+      <c r="C40" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="7" customFormat="1">
+      <c r="A41" s="7">
+        <v>4</v>
+      </c>
+      <c r="B41" s="7">
         <v>6</v>
       </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42">
+      <c r="C41" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="7" customFormat="1">
+      <c r="A42" s="7">
+        <v>2</v>
+      </c>
+      <c r="B42" s="7">
         <v>6</v>
       </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43">
+      <c r="C42" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="7" customFormat="1">
+      <c r="A43" s="7">
+        <v>2</v>
+      </c>
+      <c r="B43" s="7">
         <v>6</v>
       </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>4</v>
-      </c>
-      <c r="B44">
+      <c r="C43" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="7" customFormat="1">
+      <c r="A44" s="7">
+        <v>4</v>
+      </c>
+      <c r="B44" s="7">
         <v>7</v>
       </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>4</v>
-      </c>
-      <c r="B45">
+      <c r="C44" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="7" customFormat="1">
+      <c r="A45" s="7">
+        <v>4</v>
+      </c>
+      <c r="B45" s="7">
         <v>7</v>
       </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>4</v>
-      </c>
-      <c r="B46">
+      <c r="C45" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="7" customFormat="1">
+      <c r="A46" s="7">
+        <v>4</v>
+      </c>
+      <c r="B46" s="7">
         <v>7</v>
       </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>4</v>
-      </c>
-      <c r="B47">
+      <c r="C46" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="7" customFormat="1">
+      <c r="A47" s="7">
+        <v>4</v>
+      </c>
+      <c r="B47" s="7">
         <v>7</v>
       </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48">
+      <c r="C47" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="7" customFormat="1">
+      <c r="A48" s="7">
+        <v>2</v>
+      </c>
+      <c r="B48" s="7">
         <v>7</v>
       </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49">
+      <c r="C48" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="7" customFormat="1">
+      <c r="A49" s="7">
+        <v>2</v>
+      </c>
+      <c r="B49" s="7">
         <v>7</v>
       </c>
-      <c r="C49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50">
+      <c r="C49" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="7" customFormat="1">
+      <c r="A50" s="7">
+        <v>1</v>
+      </c>
+      <c r="B50" s="7">
         <v>7</v>
       </c>
-      <c r="C50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
+      <c r="C50" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="7" customFormat="1">
+      <c r="A51" s="7">
+        <v>2</v>
+      </c>
+      <c r="B51" s="7">
         <v>7</v>
       </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52">
+      <c r="C51" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="7" customFormat="1">
+      <c r="A52" s="7">
+        <v>2</v>
+      </c>
+      <c r="B52" s="7">
         <v>7</v>
       </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53">
+      <c r="C52" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="7" customFormat="1">
+      <c r="A53" s="7">
+        <v>1</v>
+      </c>
+      <c r="B53" s="7">
         <v>8</v>
       </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>3</v>
-      </c>
-      <c r="B54">
+      <c r="C53" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="7" customFormat="1">
+      <c r="A54" s="7">
+        <v>2</v>
+      </c>
+      <c r="B54" s="7">
         <v>8</v>
       </c>
-      <c r="C54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
-        <v>3</v>
-      </c>
-      <c r="B55">
+      <c r="C54" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="7" customFormat="1">
+      <c r="A55" s="7">
+        <v>2</v>
+      </c>
+      <c r="B55" s="7">
         <v>8</v>
       </c>
-      <c r="C55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
-        <v>3</v>
-      </c>
-      <c r="B56">
+      <c r="C55" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="7" customFormat="1">
+      <c r="A56" s="7">
+        <v>2</v>
+      </c>
+      <c r="B56" s="7">
         <v>8</v>
       </c>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57">
+      <c r="C56" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="7" customFormat="1">
+      <c r="A57" s="7">
+        <v>2</v>
+      </c>
+      <c r="B57" s="7">
         <v>8</v>
       </c>
-      <c r="C57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="B58">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
-        <v>4</v>
-      </c>
-      <c r="B59">
+      <c r="C57" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="7" customFormat="1">
+      <c r="A58" s="7">
+        <v>5</v>
+      </c>
+      <c r="B58" s="7">
         <v>9</v>
       </c>
-      <c r="C59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
-        <v>4</v>
-      </c>
-      <c r="B60">
+      <c r="C58" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="7" customFormat="1">
+      <c r="A59" s="7">
+        <v>5</v>
+      </c>
+      <c r="B59" s="7">
         <v>9</v>
       </c>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
-        <v>4</v>
-      </c>
-      <c r="B61">
+      <c r="C59" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="7" customFormat="1">
+      <c r="A60" s="7">
+        <v>5</v>
+      </c>
+      <c r="B60" s="7">
         <v>9</v>
       </c>
-      <c r="C61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
-        <v>4</v>
-      </c>
-      <c r="B62">
+      <c r="C60" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="7" customFormat="1">
+      <c r="A61" s="7">
+        <v>5</v>
+      </c>
+      <c r="B61" s="7">
         <v>9</v>
       </c>
-      <c r="C62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
-        <v>4</v>
-      </c>
-      <c r="B63">
+      <c r="C61" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="7" customFormat="1">
+      <c r="A62" s="7">
+        <v>5</v>
+      </c>
+      <c r="B62" s="7">
         <v>9</v>
       </c>
-      <c r="C63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64">
+      <c r="C62" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="7" customFormat="1">
+      <c r="A63" s="7">
+        <v>4</v>
+      </c>
+      <c r="B63" s="7">
         <v>9</v>
       </c>
-      <c r="C64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65">
+      <c r="C63" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="7" customFormat="1">
+      <c r="A64" s="7">
+        <v>2</v>
+      </c>
+      <c r="B64" s="7">
         <v>9</v>
       </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
-        <v>4</v>
-      </c>
-      <c r="B66">
+      <c r="C64" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="7" customFormat="1">
+      <c r="A65" s="7">
+        <v>1</v>
+      </c>
+      <c r="B65" s="7">
+        <v>9</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="7" customFormat="1">
+      <c r="A66" s="7">
+        <v>4</v>
+      </c>
+      <c r="B66" s="7">
         <v>10</v>
       </c>
-      <c r="C66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
-        <v>4</v>
-      </c>
-      <c r="B67">
+      <c r="C66" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="7" customFormat="1">
+      <c r="A67" s="7">
+        <v>4</v>
+      </c>
+      <c r="B67" s="7">
         <v>10</v>
       </c>
-      <c r="C67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
-        <v>4</v>
-      </c>
-      <c r="B68">
+      <c r="C67" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="7" customFormat="1">
+      <c r="A68" s="7">
+        <v>4</v>
+      </c>
+      <c r="B68" s="7">
         <v>10</v>
       </c>
-      <c r="C68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
-        <v>4</v>
-      </c>
-      <c r="B69">
+      <c r="C68" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="7" customFormat="1">
+      <c r="A69" s="7">
+        <v>4</v>
+      </c>
+      <c r="B69" s="7">
         <v>10</v>
       </c>
-      <c r="C69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
-        <v>3</v>
-      </c>
-      <c r="B70">
+      <c r="C69" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="7" customFormat="1">
+      <c r="A70" s="7">
+        <v>3</v>
+      </c>
+      <c r="B70" s="7">
         <v>10</v>
       </c>
-      <c r="C70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
-        <v>3</v>
-      </c>
-      <c r="B71">
+      <c r="C70" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="7" customFormat="1">
+      <c r="A71" s="7">
+        <v>3</v>
+      </c>
+      <c r="B71" s="7">
         <v>10</v>
       </c>
-      <c r="C71" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72">
-        <v>3</v>
-      </c>
-      <c r="B72">
+      <c r="C71" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="7" customFormat="1">
+      <c r="A72" s="7">
+        <v>3</v>
+      </c>
+      <c r="B72" s="7">
         <v>10</v>
       </c>
-      <c r="C72" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
-        <v>5</v>
-      </c>
-      <c r="B73">
+      <c r="C72" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="7" customFormat="1">
+      <c r="A73" s="7">
+        <v>5</v>
+      </c>
+      <c r="B73" s="7">
         <v>11</v>
       </c>
-      <c r="C73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
-        <v>5</v>
-      </c>
-      <c r="B74">
+      <c r="C73" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="7" customFormat="1">
+      <c r="A74" s="7">
+        <v>5</v>
+      </c>
+      <c r="B74" s="7">
         <v>11</v>
       </c>
-      <c r="C74" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
-        <v>5</v>
-      </c>
-      <c r="B75">
+      <c r="C74" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="7" customFormat="1">
+      <c r="A75" s="7">
+        <v>5</v>
+      </c>
+      <c r="B75" s="7">
         <v>11</v>
       </c>
-      <c r="C75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
-        <v>5</v>
-      </c>
-      <c r="B76">
+      <c r="C75" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="7" customFormat="1">
+      <c r="A76" s="7">
+        <v>5</v>
+      </c>
+      <c r="B76" s="7">
         <v>11</v>
       </c>
-      <c r="C76" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
-        <v>5</v>
-      </c>
-      <c r="B77">
+      <c r="C76" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="7" customFormat="1">
+      <c r="A77" s="7">
+        <v>5</v>
+      </c>
+      <c r="B77" s="7">
         <v>11</v>
       </c>
-      <c r="C77" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
-        <v>3</v>
-      </c>
-      <c r="B78">
+      <c r="C77" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="7" customFormat="1">
+      <c r="A78" s="7">
+        <v>3</v>
+      </c>
+      <c r="B78" s="7">
         <v>11</v>
       </c>
-      <c r="C78" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
-        <v>3</v>
-      </c>
-      <c r="B79">
+      <c r="C78" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="7" customFormat="1">
+      <c r="A79" s="7">
+        <v>3</v>
+      </c>
+      <c r="B79" s="7">
         <v>11</v>
       </c>
-      <c r="C79" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
-        <v>3</v>
-      </c>
-      <c r="B80">
+      <c r="C79" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="7" customFormat="1">
+      <c r="A80" s="7">
+        <v>3</v>
+      </c>
+      <c r="B80" s="7">
         <v>11</v>
       </c>
-      <c r="C80" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="B81">
+      <c r="C80" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="7" customFormat="1">
+      <c r="A81" s="7">
+        <v>1</v>
+      </c>
+      <c r="B81" s="7">
         <v>11</v>
       </c>
-      <c r="C81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>3</v>
-      </c>
-      <c r="B82">
+      <c r="C81" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="7" customFormat="1">
+      <c r="A82" s="7">
+        <v>3</v>
+      </c>
+      <c r="B82" s="7">
         <v>12</v>
       </c>
-      <c r="C82" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
-        <v>3</v>
-      </c>
-      <c r="B83">
+      <c r="C82" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="7" customFormat="1">
+      <c r="A83" s="7">
+        <v>3</v>
+      </c>
+      <c r="B83" s="7">
         <v>12</v>
       </c>
-      <c r="C83" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
-        <v>3</v>
-      </c>
-      <c r="B84">
+      <c r="C83" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="7" customFormat="1">
+      <c r="A84" s="7">
+        <v>3</v>
+      </c>
+      <c r="B84" s="7">
         <v>12</v>
       </c>
-      <c r="C84" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
-        <v>3</v>
-      </c>
-      <c r="B85">
+      <c r="C84" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="7" customFormat="1">
+      <c r="A85" s="7">
+        <v>2</v>
+      </c>
+      <c r="B85" s="7">
         <v>12</v>
       </c>
-      <c r="C85" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
-        <v>3</v>
-      </c>
-      <c r="B86">
+      <c r="C85" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="7" customFormat="1">
+      <c r="A86" s="7">
+        <v>2</v>
+      </c>
+      <c r="B86" s="7">
         <v>12</v>
       </c>
-      <c r="C86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
-        <v>3</v>
-      </c>
-      <c r="B87">
+      <c r="C86" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="7" customFormat="1">
+      <c r="A87" s="7">
+        <v>1</v>
+      </c>
+      <c r="B87" s="7">
         <v>12</v>
       </c>
-      <c r="C87" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88">
+      <c r="C87" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="7" customFormat="1">
+      <c r="A88" s="7">
+        <v>1</v>
+      </c>
+      <c r="B88" s="7">
         <v>12</v>
       </c>
-      <c r="C88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
-        <v>4</v>
-      </c>
-      <c r="B89">
+      <c r="C88" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="7" customFormat="1">
+      <c r="A89" s="7">
+        <v>4</v>
+      </c>
+      <c r="B89" s="7">
         <v>13</v>
       </c>
-      <c r="C89" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
-        <v>4</v>
-      </c>
-      <c r="B90">
+      <c r="C89" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="7" customFormat="1">
+      <c r="A90" s="7">
+        <v>4</v>
+      </c>
+      <c r="B90" s="7">
         <v>13</v>
       </c>
-      <c r="C90" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
-        <v>4</v>
-      </c>
-      <c r="B91">
+      <c r="C90" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="7" customFormat="1">
+      <c r="A91" s="7">
+        <v>4</v>
+      </c>
+      <c r="B91" s="7">
         <v>13</v>
       </c>
-      <c r="C91" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92">
-        <v>4</v>
-      </c>
-      <c r="B92">
+      <c r="C91" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="7" customFormat="1">
+      <c r="A92" s="7">
+        <v>4</v>
+      </c>
+      <c r="B92" s="7">
         <v>13</v>
       </c>
-      <c r="C92" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93">
-        <v>3</v>
-      </c>
-      <c r="B93">
+      <c r="C92" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="7" customFormat="1">
+      <c r="A93" s="7">
+        <v>3</v>
+      </c>
+      <c r="B93" s="7">
         <v>13</v>
       </c>
-      <c r="C93" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94">
-        <v>3</v>
-      </c>
-      <c r="B94">
+      <c r="C93" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="7" customFormat="1">
+      <c r="A94" s="7">
+        <v>3</v>
+      </c>
+      <c r="B94" s="7">
         <v>13</v>
       </c>
-      <c r="C94" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95">
-        <v>3</v>
-      </c>
-      <c r="B95">
+      <c r="C94" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="7" customFormat="1">
+      <c r="A95" s="7">
+        <v>3</v>
+      </c>
+      <c r="B95" s="7">
         <v>13</v>
       </c>
-      <c r="C95" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96">
-        <v>2</v>
-      </c>
-      <c r="B96">
+      <c r="C95" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="7" customFormat="1">
+      <c r="A96" s="7">
+        <v>2</v>
+      </c>
+      <c r="B96" s="7">
         <v>13</v>
       </c>
-      <c r="C96" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
-        <v>2</v>
-      </c>
-      <c r="B97">
+      <c r="C96" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="7" customFormat="1">
+      <c r="A97" s="7">
+        <v>2</v>
+      </c>
+      <c r="B97" s="7">
         <v>13</v>
       </c>
-      <c r="C97" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
-        <v>4</v>
-      </c>
-      <c r="B98">
+      <c r="C97" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="7" customFormat="1">
+      <c r="A98" s="7">
+        <v>4</v>
+      </c>
+      <c r="B98" s="7">
         <v>14</v>
       </c>
-      <c r="C98" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
-        <v>4</v>
-      </c>
-      <c r="B99">
+      <c r="C98" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="7" customFormat="1">
+      <c r="A99" s="7">
+        <v>4</v>
+      </c>
+      <c r="B99" s="7">
         <v>14</v>
       </c>
-      <c r="C99" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
-        <v>4</v>
-      </c>
-      <c r="B100">
+      <c r="C99" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="7" customFormat="1">
+      <c r="A100" s="7">
+        <v>4</v>
+      </c>
+      <c r="B100" s="7">
         <v>14</v>
       </c>
-      <c r="C100" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
-        <v>4</v>
-      </c>
-      <c r="B101">
+      <c r="C100" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="7" customFormat="1">
+      <c r="A101" s="7">
+        <v>4</v>
+      </c>
+      <c r="B101" s="7">
         <v>14</v>
       </c>
-      <c r="C101" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102">
-        <v>3</v>
-      </c>
-      <c r="B102">
+      <c r="C101" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="7" customFormat="1">
+      <c r="A102" s="7">
+        <v>3</v>
+      </c>
+      <c r="B102" s="7">
         <v>14</v>
       </c>
-      <c r="C102" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103">
-        <v>3</v>
-      </c>
-      <c r="B103">
+      <c r="C102" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="7" customFormat="1">
+      <c r="A103" s="7">
+        <v>3</v>
+      </c>
+      <c r="B103" s="7">
         <v>14</v>
       </c>
-      <c r="C103" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104">
-        <v>3</v>
-      </c>
-      <c r="B104">
+      <c r="C103" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="7" customFormat="1">
+      <c r="A104" s="7">
+        <v>3</v>
+      </c>
+      <c r="B104" s="7">
         <v>14</v>
       </c>
-      <c r="C104" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105">
-        <v>2</v>
-      </c>
-      <c r="B105">
+      <c r="C104" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="7" customFormat="1">
+      <c r="A105" s="7">
+        <v>2</v>
+      </c>
+      <c r="B105" s="7">
         <v>14</v>
       </c>
-      <c r="C105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106">
-        <v>2</v>
-      </c>
-      <c r="B106">
+      <c r="C105" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="7" customFormat="1">
+      <c r="A106" s="7">
+        <v>2</v>
+      </c>
+      <c r="B106" s="7">
         <v>14</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1993,47 +1983,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108">
-        <v>2</v>
-      </c>
-      <c r="B108">
+    <row r="108" spans="1:3" s="7" customFormat="1">
+      <c r="A108" s="7">
+        <v>2</v>
+      </c>
+      <c r="B108" s="7">
         <v>16</v>
       </c>
-      <c r="C108" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109">
-        <v>2</v>
-      </c>
-      <c r="B109">
+      <c r="C108" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="7" customFormat="1">
+      <c r="A109" s="7">
+        <v>2</v>
+      </c>
+      <c r="B109" s="7">
         <v>16</v>
       </c>
-      <c r="C109" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110">
-        <v>1</v>
-      </c>
-      <c r="B110">
+      <c r="C109" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="7" customFormat="1">
+      <c r="A110" s="7">
+        <v>1</v>
+      </c>
+      <c r="B110" s="7">
         <v>16</v>
       </c>
-      <c r="C110" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111">
-        <v>1</v>
-      </c>
-      <c r="B111">
+      <c r="C110" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="7" customFormat="1">
+      <c r="A111" s="7">
+        <v>1</v>
+      </c>
+      <c r="B111" s="7">
         <v>16</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2119,10 +2109,10 @@
         <v>1</v>
       </c>
       <c r="B119">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2130,10 +2120,10 @@
         <v>1</v>
       </c>
       <c r="B120">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C120" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2141,11 +2131,27 @@
         <v>1</v>
       </c>
       <c r="B121">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C121" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>24</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2173,24 +2179,24 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="21">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
